--- a/cdf_star_by_state_18_19new.xlsx
+++ b/cdf_star_by_state_18_19new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.carr-harris\Dropbox\NMFS\fluke_mse\simulation_R_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="15">
   <si>
     <t>l_in_bin</t>
   </si>
@@ -62,14 +62,17 @@
   <si>
     <t>VA</t>
   </si>
+  <si>
+    <t>NC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -77,7 +80,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +90,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,12 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="G229" sqref="G229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5039,6 +5050,622 @@
         <v>0</v>
       </c>
     </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="1">
+        <v>12416.6943359375</v>
+      </c>
+      <c r="D212" s="2">
+        <v>2.7658354956656694E-3</v>
+      </c>
+      <c r="E212" s="4">
+        <f>D212</f>
+        <v>2.7658354956656694E-3</v>
+      </c>
+      <c r="F212" s="4">
+        <f>E212</f>
+        <v>2.7658354956656694E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="1">
+        <v>33111.1875</v>
+      </c>
+      <c r="D213" s="2">
+        <v>7.375562097877264E-3</v>
+      </c>
+      <c r="E213">
+        <f>D213/SUM($D$212:$D$223)*$E$223+E212</f>
+        <v>3.3484450856609634E-3</v>
+      </c>
+      <c r="F213" s="4">
+        <f>E213-E212</f>
+        <v>5.8260958999529393E-4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="1">
+        <v>82777.96875</v>
+      </c>
+      <c r="D214" s="2">
+        <v>1.8438905477523804E-2</v>
+      </c>
+      <c r="E214">
+        <f t="shared" ref="E214:E222" si="24">D214/SUM($D$212:$D$223)*$E$223+E213</f>
+        <v>4.804969079040931E-3</v>
+      </c>
+      <c r="F214" s="4">
+        <f t="shared" ref="F214:F239" si="25">E214-E213</f>
+        <v>1.4565239933799676E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>7</v>
+      </c>
+      <c r="B215" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" s="1">
+        <v>220552.828125</v>
+      </c>
+      <c r="D215" s="2">
+        <v>4.9128443002700806E-2</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="24"/>
+        <v>8.6857176450584953E-3</v>
+      </c>
+      <c r="F215" s="4">
+        <f t="shared" si="25"/>
+        <v>3.8807485660175643E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>8</v>
+      </c>
+      <c r="B216" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="1">
+        <v>244195</v>
+      </c>
+      <c r="D216" s="2">
+        <v>5.4394766688346863E-2</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="24"/>
+        <v>1.2982463072408135E-2</v>
+      </c>
+      <c r="F216" s="4">
+        <f t="shared" si="25"/>
+        <v>4.2967454273496394E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="1">
+        <v>316874.78125</v>
+      </c>
+      <c r="D217" s="2">
+        <v>7.0584289729595184E-2</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="24"/>
+        <v>1.8558049523141697E-2</v>
+      </c>
+      <c r="F217" s="4">
+        <f t="shared" si="25"/>
+        <v>5.575586450733562E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="1">
+        <v>567029.0625</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0.12630648910999298</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="24"/>
+        <v>2.8535237818430675E-2</v>
+      </c>
+      <c r="F218" s="4">
+        <f t="shared" si="25"/>
+        <v>9.9771882952889787E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>11</v>
+      </c>
+      <c r="B219" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="1">
+        <v>985057.75</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0.21942295134067535</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="24"/>
+        <v>4.5867871456338874E-2</v>
+      </c>
+      <c r="F219" s="4">
+        <f t="shared" si="25"/>
+        <v>1.7332633637908199E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>12</v>
+      </c>
+      <c r="B220" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" s="1">
+        <v>621197.0625</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0.13837248086929321</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="24"/>
+        <v>5.6798175245536542E-2</v>
+      </c>
+      <c r="F220" s="4">
+        <f t="shared" si="25"/>
+        <v>1.0930303789197668E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>13</v>
+      </c>
+      <c r="B221" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" s="1">
+        <v>335795.4375</v>
+      </c>
+      <c r="D221" s="2">
+        <v>7.4798889458179474E-2</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="24"/>
+        <v>6.2706680894465378E-2</v>
+      </c>
+      <c r="F221" s="4">
+        <f t="shared" si="25"/>
+        <v>5.9085056489288357E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>14</v>
+      </c>
+      <c r="B222" t="s">
+        <v>14</v>
+      </c>
+      <c r="C222" s="1">
+        <v>271910.84375</v>
+      </c>
+      <c r="D222" s="2">
+        <v>6.0568507760763168E-2</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="24"/>
+        <v>6.7491101797555741E-2</v>
+      </c>
+      <c r="F222" s="4">
+        <f t="shared" si="25"/>
+        <v>4.7844209030903639E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>15</v>
+      </c>
+      <c r="B223" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="1">
+        <v>287359.875</v>
+      </c>
+      <c r="D223" s="2">
+        <v>6.4009800553321838E-2</v>
+      </c>
+      <c r="E223" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F223" s="4">
+        <f t="shared" si="25"/>
+        <v>2.5088982024442652E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>16</v>
+      </c>
+      <c r="B224" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="1">
+        <v>148478.09375</v>
+      </c>
+      <c r="D224" s="2">
+        <v>3.3073697239160538E-2</v>
+      </c>
+      <c r="E224" s="5">
+        <f>D224/SUM($D$224:$D$239)*(1-$E$223)+E223</f>
+        <v>0.34020736680913727</v>
+      </c>
+      <c r="F224" s="4">
+        <f t="shared" si="25"/>
+        <v>0.27020736680913726</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>17</v>
+      </c>
+      <c r="B225" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225" s="1">
+        <v>149465.734375</v>
+      </c>
+      <c r="D225" s="2">
+        <v>3.3293694257736206E-2</v>
+      </c>
+      <c r="E225" s="5">
+        <f t="shared" ref="E225:E239" si="26">D225/SUM($D$224:$D$239)*(1-$E$223)+E224</f>
+        <v>0.61221207773330777</v>
+      </c>
+      <c r="F225" s="4">
+        <f t="shared" si="25"/>
+        <v>0.2720047109241705</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>18</v>
+      </c>
+      <c r="B226" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="1">
+        <v>77032.046875</v>
+      </c>
+      <c r="D226" s="2">
+        <v>1.715899258852005E-2</v>
+      </c>
+      <c r="E226" s="5">
+        <f t="shared" si="26"/>
+        <v>0.75239858820761074</v>
+      </c>
+      <c r="F226" s="4">
+        <f t="shared" si="25"/>
+        <v>0.14018651047430297</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>19</v>
+      </c>
+      <c r="B227" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" s="1">
+        <v>77523.65625</v>
+      </c>
+      <c r="D227" s="2">
+        <v>1.7268499359488487E-2</v>
+      </c>
+      <c r="E227" s="5">
+        <f t="shared" si="26"/>
+        <v>0.89347975330782958</v>
+      </c>
+      <c r="F227" s="4">
+        <f t="shared" si="25"/>
+        <v>0.14108116510021884</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>20</v>
+      </c>
+      <c r="B228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" s="1">
+        <v>40005.5</v>
+      </c>
+      <c r="D228" s="2">
+        <v>8.9112790301442146E-3</v>
+      </c>
+      <c r="E228" s="5">
+        <f t="shared" si="26"/>
+        <v>0.96628362595094353</v>
+      </c>
+      <c r="F228" s="4">
+        <f t="shared" si="25"/>
+        <v>7.2803872643113943E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>21</v>
+      </c>
+      <c r="B229" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="1">
+        <v>8646.7421875</v>
+      </c>
+      <c r="D229" s="2">
+        <v>1.9260735716670752E-3</v>
+      </c>
+      <c r="E229" s="5">
+        <f t="shared" si="26"/>
+        <v>0.98201937101498826</v>
+      </c>
+      <c r="F229" s="4">
+        <f t="shared" si="25"/>
+        <v>1.5735745064044737E-2</v>
+      </c>
+      <c r="G229" s="4"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>22</v>
+      </c>
+      <c r="B230" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="1">
+        <v>6187.50146484375</v>
+      </c>
+      <c r="D230" s="2">
+        <v>1.3782742898911238E-3</v>
+      </c>
+      <c r="E230" s="5">
+        <f t="shared" si="26"/>
+        <v>0.99327967444944232</v>
+      </c>
+      <c r="F230" s="4">
+        <f t="shared" si="25"/>
+        <v>1.1260303434454055E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>23</v>
+      </c>
+      <c r="B231" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" s="1">
+        <v>1121.437744140625</v>
+      </c>
+      <c r="D231" s="2">
+        <v>2.4980178568512201E-4</v>
+      </c>
+      <c r="E231" s="5">
+        <f t="shared" si="26"/>
+        <v>0.99532051924057974</v>
+      </c>
+      <c r="F231" s="4">
+        <f t="shared" si="25"/>
+        <v>2.0408447911374195E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>24</v>
+      </c>
+      <c r="B232" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="1">
+        <v>0</v>
+      </c>
+      <c r="D232" s="2">
+        <v>0</v>
+      </c>
+      <c r="E232" s="5">
+        <f t="shared" si="26"/>
+        <v>0.99532051924057974</v>
+      </c>
+      <c r="F232" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>25</v>
+      </c>
+      <c r="B233" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" s="1">
+        <v>7.0728964805603027</v>
+      </c>
+      <c r="D233" s="2">
+        <v>1.5754973219372914E-6</v>
+      </c>
+      <c r="E233" s="5">
+        <f t="shared" si="26"/>
+        <v>0.99533339082792294</v>
+      </c>
+      <c r="F233" s="4">
+        <f t="shared" si="25"/>
+        <v>1.2871587343199486E-5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>26</v>
+      </c>
+      <c r="B234" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="1">
+        <v>2564.287109375</v>
+      </c>
+      <c r="D234" s="2">
+        <v>5.711984122171998E-4</v>
+      </c>
+      <c r="E234" s="5">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F234" s="4">
+        <f t="shared" si="25"/>
+        <v>4.6666091720770631E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>27</v>
+      </c>
+      <c r="B235" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="1">
+        <v>0</v>
+      </c>
+      <c r="D235" s="2">
+        <v>0</v>
+      </c>
+      <c r="E235" s="5">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F235" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>28</v>
+      </c>
+      <c r="B236" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="1">
+        <v>0</v>
+      </c>
+      <c r="D236" s="2">
+        <v>0</v>
+      </c>
+      <c r="E236" s="5">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F236" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>29</v>
+      </c>
+      <c r="B237" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="1">
+        <v>0</v>
+      </c>
+      <c r="D237" s="2">
+        <v>0</v>
+      </c>
+      <c r="E237" s="5">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F237" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>30</v>
+      </c>
+      <c r="B238" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="1">
+        <v>0</v>
+      </c>
+      <c r="D238" s="2">
+        <v>0</v>
+      </c>
+      <c r="E238" s="5">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F238" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>31</v>
+      </c>
+      <c r="B239" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="1">
+        <v>0</v>
+      </c>
+      <c r="D239" s="2">
+        <v>0</v>
+      </c>
+      <c r="E239" s="5">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F239" s="4">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cdf_star_by_state_18_19new.xlsx
+++ b/cdf_star_by_state_18_19new.xlsx
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="G229" sqref="G229"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
